--- a/weight.xlsx
+++ b/weight.xlsx
@@ -188,9 +188,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>体重</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -270,10 +267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -306,16 +303,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
+              <c:f>Sheet1!$C$2:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -348,6 +348,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>75.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -379,9 +382,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>体脂率</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -404,10 +404,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
+              <c:f>Sheet1!$A$2:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -440,16 +440,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43307</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43321</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$B$2:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -458,6 +461,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1548,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T29" sqref="T29"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1674,6 +1680,20 @@
       </c>
       <c r="D12">
         <v>16.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>43321</v>
+      </c>
+      <c r="B13">
+        <v>22.3</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -188,6 +188,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>体重</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -382,6 +385,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>体脂率</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -188,9 +188,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>体重</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -270,10 +267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -309,16 +306,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$13</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -354,6 +354,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>76.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,9 +388,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>体脂率</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -410,10 +410,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$13</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -449,16 +449,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43321</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$13</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -470,6 +473,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>22.3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1560,10 +1566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1700,6 +1706,20 @@
       </c>
       <c r="D13">
         <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>43324</v>
+      </c>
+      <c r="B14">
+        <v>22</v>
+      </c>
+      <c r="C14">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="D14">
+        <v>16.8</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -188,6 +188,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>体重(kg)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -388,6 +391,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>体脂率(%)</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -408,6 +414,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$2:$A$14</c:f>
@@ -525,7 +588,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -545,7 +608,7 @@
         </c:txPr>
         <c:crossAx val="874670128"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -571,7 +634,7 @@
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -612,7 +675,7 @@
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -651,14 +714,14 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
-        <c:axPos val="b"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="874083184"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
+        <c:crosses val="max"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
@@ -1568,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -188,9 +188,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>体重(kg)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -270,10 +267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -312,16 +309,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43324</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:f>Sheet1!$C$2:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -360,6 +360,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>76.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -391,9 +394,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>体脂率(%)</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -473,10 +473,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -515,16 +515,19 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43324</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:f>Sheet1!$B$2:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -539,6 +542,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,7 +594,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1629,10 +1635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1783,6 +1789,20 @@
       </c>
       <c r="D14">
         <v>16.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>43333</v>
+      </c>
+      <c r="B15">
+        <v>21.7</v>
+      </c>
+      <c r="C15">
+        <v>75.7</v>
+      </c>
+      <c r="D15">
+        <v>16.399999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -267,10 +267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -312,16 +312,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$15</c:f>
+              <c:f>Sheet1!$C$2:$C$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -363,6 +366,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>75.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>76.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -473,10 +479,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$15</c:f>
+              <c:f>Sheet1!$A$2:$A$16</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -518,16 +524,19 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>43333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$15</c:f>
+              <c:f>Sheet1!$B$2:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -545,6 +554,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>21.7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1635,10 +1647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1803,6 +1815,20 @@
       </c>
       <c r="D15">
         <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>43337</v>
+      </c>
+      <c r="B16">
+        <v>20.7</v>
+      </c>
+      <c r="C16">
+        <v>76.2</v>
+      </c>
+      <c r="D16">
+        <v>15.8</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -267,10 +267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -315,16 +315,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$16</c:f>
+              <c:f>Sheet1!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -369,6 +372,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>76.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,10 +485,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$16</c:f>
+              <c:f>Sheet1!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -527,16 +533,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43337</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$16</c:f>
+              <c:f>Sheet1!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -557,6 +566,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20.7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1647,10 +1659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U15" sqref="U15"/>
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1829,6 +1841,20 @@
       </c>
       <c r="D16">
         <v>15.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>43342</v>
+      </c>
+      <c r="B17">
+        <v>20.6</v>
+      </c>
+      <c r="C17">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="D17">
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -267,10 +267,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -318,16 +318,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$17</c:f>
+              <c:f>Sheet1!$C$2:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -375,6 +378,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>75.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>74.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -485,10 +491,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$17</c:f>
+              <c:f>Sheet1!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -536,16 +542,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43342</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$17</c:f>
+              <c:f>Sheet1!$B$2:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -569,6 +578,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>20.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1659,10 +1671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1855,6 +1867,20 @@
       </c>
       <c r="D17">
         <v>15.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>43349</v>
+      </c>
+      <c r="B18">
+        <v>20.2</v>
+      </c>
+      <c r="C18">
+        <v>74.7</v>
+      </c>
+      <c r="D18">
+        <v>15.1</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -188,6 +188,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>体重(kg)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
@@ -412,6 +423,17 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>体脂率(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -278,10 +278,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -332,16 +332,25 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43356</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:f>Sheet1!$C$2:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -361,7 +370,7 @@
                   <c:v>79.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>78.5</c:v>
+                  <c:v>77.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>77.3</c:v>
@@ -392,6 +401,15 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>74.7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>74.8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>74.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -513,10 +531,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$18</c:f>
+              <c:f>Sheet1!$A$2:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -567,16 +585,28 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43349</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43356</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43361</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$18</c:f>
+              <c:f>Sheet1!$B$2:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="20"/>
+                <c:pt idx="6">
+                  <c:v>22.3</c:v>
+                </c:pt>
                 <c:pt idx="8">
                   <c:v>22.8</c:v>
                 </c:pt>
@@ -602,6 +632,15 @@
                   <c:v>20.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>20.2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1693,10 +1732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1770,8 +1809,14 @@
       <c r="A8" s="1">
         <v>43226</v>
       </c>
+      <c r="B8">
+        <v>22.3</v>
+      </c>
       <c r="C8">
-        <v>78.5</v>
+        <v>77.900000000000006</v>
+      </c>
+      <c r="D8">
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1905,10 +1950,52 @@
         <v>15.1</v>
       </c>
     </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>43356</v>
+      </c>
+      <c r="B19">
+        <v>20.2</v>
+      </c>
+      <c r="C19">
+        <v>74.8</v>
+      </c>
+      <c r="D19">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>43361</v>
+      </c>
+      <c r="B20">
+        <v>20.8</v>
+      </c>
+      <c r="C20">
+        <v>74.2</v>
+      </c>
+      <c r="D20">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>43371</v>
+      </c>
+      <c r="B21">
+        <v>20.2</v>
+      </c>
+      <c r="C21">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="D21">
+        <v>15.1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -278,10 +278,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -341,16 +341,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$21</c:f>
+              <c:f>Sheet1!$C$2:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -410,6 +416,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>74.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -531,10 +543,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$21</c:f>
+              <c:f>Sheet1!$A$2:$A$23</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -594,16 +606,22 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>43371</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43385</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$21</c:f>
+              <c:f>Sheet1!$B$2:$B$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="6">
                   <c:v>22.3</c:v>
                 </c:pt>
@@ -642,6 +660,12 @@
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>20.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1732,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1990,6 +2014,34 @@
       </c>
       <c r="D21">
         <v>15.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>43375</v>
+      </c>
+      <c r="B22">
+        <v>19.3</v>
+      </c>
+      <c r="C22">
+        <v>74</v>
+      </c>
+      <c r="D22">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>43385</v>
+      </c>
+      <c r="B23">
+        <v>19.2</v>
+      </c>
+      <c r="C23">
+        <v>74.5</v>
+      </c>
+      <c r="D23">
+        <v>14.3</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,6 +34,26 @@
   </si>
   <si>
     <t>脂肪重(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体脂率(%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体重(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脂肪重(kg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肌肉量(kg)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -278,10 +298,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -347,16 +367,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$23</c:f>
+              <c:f>Sheet1!$C$2:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>80.3</c:v>
                 </c:pt>
@@ -422,6 +445,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>74.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>73.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -543,10 +569,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$23</c:f>
+              <c:f>Sheet1!$A$2:$A$24</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43177</c:v>
                 </c:pt>
@@ -612,16 +638,19 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>43385</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43391</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$23</c:f>
+              <c:f>Sheet1!$B$2:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="22"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="6">
                   <c:v>22.3</c:v>
                 </c:pt>
@@ -666,6 +695,9 @@
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>19.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>18.600000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1946,7 +1978,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>43342</v>
       </c>
@@ -1960,7 +1992,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>43349</v>
       </c>
@@ -1974,7 +2006,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>43356</v>
       </c>
@@ -1988,7 +2020,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>43361</v>
       </c>
@@ -2002,7 +2034,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>43371</v>
       </c>
@@ -2016,7 +2048,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>43375</v>
       </c>
@@ -2030,7 +2062,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>43385</v>
       </c>
@@ -2042,6 +2074,54 @@
       </c>
       <c r="D23">
         <v>14.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>43391</v>
+      </c>
+      <c r="B24">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C24">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="D24">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>43403</v>
+      </c>
+      <c r="B28">
+        <v>17.2</v>
+      </c>
+      <c r="C28">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="D28">
+        <v>12.7</v>
+      </c>
+      <c r="E28">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -971,9 +971,959 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>体脂率(%)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$28:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8C07-44C0-960C-EE758722BD77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2006536352"/>
+        <c:axId val="2006535104"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>肌肉量(kg)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$28:$A$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>43403</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43407</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43412</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43418</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43431</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$E$28:$E$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>55.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000007-8C07-44C0-960C-EE758722BD77}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>体重(kg)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="zh-CN"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="b"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="95000"/>
+                          <a:alpha val="54000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$28:$A$32</c:f>
+              <c:numCache>
+                <c:formatCode>m"月"d"日"</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43412</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>73.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8C07-44C0-960C-EE758722BD77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1519181696"/>
+        <c:axId val="1519191264"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$27</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>脂肪重(kg)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="lt1">
+                              <a:lumMod val="85000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="zh-CN"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:layout/>
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525">
+                            <a:solidFill>
+                              <a:schemeClr val="lt1">
+                                <a:lumMod val="95000"/>
+                                <a:alpha val="54000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$28:$A$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>m"月"d"日"</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>43403</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>43407</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>43412</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>43418</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>43431</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$D$28:$D$32</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="5"/>
+                      <c:pt idx="0">
+                        <c:v>12.7</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>13.7</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>12.6</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.5</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-8C07-44C0-960C-EE758722BD77}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="2006536352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006535104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="2006535104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006536352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1519191264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1519181696"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="1519181696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m&quot;月&quot;d&quot;日&quot;" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1519191264"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
   <a:schemeClr val="accent6"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -1490,6 +2440,502 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1517,6 +2963,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1788,10 +3264,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2122,6 +3598,74 @@
       </c>
       <c r="E28">
         <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>43407</v>
+      </c>
+      <c r="B29">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C29">
+        <v>73.3</v>
+      </c>
+      <c r="D29">
+        <v>13.7</v>
+      </c>
+      <c r="E29">
+        <v>55.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>43412</v>
+      </c>
+      <c r="B30">
+        <v>17.2</v>
+      </c>
+      <c r="C30">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="D30">
+        <v>12.6</v>
+      </c>
+      <c r="E30">
+        <v>56.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43418</v>
+      </c>
+      <c r="B31">
+        <v>17.8</v>
+      </c>
+      <c r="C31">
+        <v>73.2</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+      <c r="E31">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>43431</v>
+      </c>
+      <c r="B32">
+        <v>18.2</v>
+      </c>
+      <c r="C32">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="D32">
+        <v>13.5</v>
+      </c>
+      <c r="E32">
+        <v>56.4</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$32</c:f>
+              <c:f>Sheet1!$A$28:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1100,16 +1100,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$32</c:f>
+              <c:f>Sheet1!$B$28:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1124,6 +1130,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>18.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,13 +1260,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$32</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$34</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1269,6 +1281,12 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>43431</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43482</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43495</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1400,10 +1418,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$32</c:f>
+              <c:f>Sheet1!$A$28:$A$34</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1418,16 +1436,22 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>43431</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43482</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$32</c:f>
+              <c:f>Sheet1!$C$28:$C$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1442,6 +1466,12 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1544,7 +1574,6 @@
                   <c:showLeaderLines val="0"/>
                   <c:extLst>
                     <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                      <c15:layout/>
                       <c15:showLeaderLines val="1"/>
                       <c15:leaderLines>
                         <c:spPr>
@@ -1567,13 +1596,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$32</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$34</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="5"/>
+                      <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1588,6 +1617,12 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>43431</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>43482</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>43495</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1790,6 +1825,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1519191264"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
@@ -3264,10 +3300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="T27" sqref="T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3666,6 +3702,40 @@
       </c>
       <c r="E32">
         <v>56.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>43482</v>
+      </c>
+      <c r="B33">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="C33">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>13.7</v>
+      </c>
+      <c r="E33">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>43495</v>
+      </c>
+      <c r="B34">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>13.3</v>
+      </c>
+      <c r="E34">
+        <v>56.5</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$34</c:f>
+              <c:f>Sheet1!$A$28:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1106,16 +1106,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$34</c:f>
+              <c:f>Sheet1!$B$28:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1136,6 +1145,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1260,13 +1278,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$34</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$37</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="10"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1287,6 +1305,15 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>43495</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43532</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43544</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43592</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1418,10 +1445,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$34</c:f>
+              <c:f>Sheet1!$A$28:$A$37</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1442,16 +1469,25 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>43495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43532</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43544</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43592</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$34</c:f>
+              <c:f>Sheet1!$C$28:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1472,6 +1508,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>71.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1596,13 +1641,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$34</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$37</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="7"/>
+                      <c:ptCount val="10"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1623,6 +1668,15 @@
                       </c:pt>
                       <c:pt idx="6">
                         <c:v>43495</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>43532</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>43544</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>43592</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3300,10 +3354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3736,6 +3790,57 @@
       </c>
       <c r="E34">
         <v>56.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>43532</v>
+      </c>
+      <c r="B35">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="C35">
+        <v>73.7</v>
+      </c>
+      <c r="D35">
+        <v>13.2</v>
+      </c>
+      <c r="E35">
+        <v>56.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>43544</v>
+      </c>
+      <c r="B36">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="C36">
+        <v>73.8</v>
+      </c>
+      <c r="D36">
+        <v>12.6</v>
+      </c>
+      <c r="E36">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>43592</v>
+      </c>
+      <c r="B37">
+        <v>17.2</v>
+      </c>
+      <c r="C37">
+        <v>71.7</v>
+      </c>
+      <c r="D37">
+        <v>12.3</v>
+      </c>
+      <c r="E37">
+        <v>55.3</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$37</c:f>
+              <c:f>Sheet1!$A$28:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1115,16 +1115,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$37</c:f>
+              <c:f>Sheet1!$B$28:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1154,6 +1157,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>17.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1278,13 +1284,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$37</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$38</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="11"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1314,6 +1320,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>43592</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43660</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1445,10 +1454,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$37</c:f>
+              <c:f>Sheet1!$A$28:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1478,16 +1487,19 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43592</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43660</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$37</c:f>
+              <c:f>Sheet1!$C$28:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1517,6 +1529,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>71.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>71.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,13 +1656,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$37</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$38</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="10"/>
+                      <c:ptCount val="11"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1677,6 +1692,9 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>43592</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>43660</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3354,10 +3372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3841,6 +3859,23 @@
       </c>
       <c r="E37">
         <v>55.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B38">
+        <v>17.7</v>
+      </c>
+      <c r="C38">
+        <v>71.3</v>
+      </c>
+      <c r="D38">
+        <v>12.6</v>
+      </c>
+      <c r="E38">
+        <v>54.6</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$38</c:f>
+              <c:f>Sheet1!$A$28:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1118,16 +1118,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$38</c:f>
+              <c:f>Sheet1!$B$28:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1160,6 +1163,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1284,13 +1290,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$38</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$39</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1323,6 +1329,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>43660</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43669</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1454,10 +1463,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$38</c:f>
+              <c:f>Sheet1!$A$28:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1490,16 +1499,19 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>43660</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$38</c:f>
+              <c:f>Sheet1!$C$28:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1532,6 +1544,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1656,13 +1671,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$38</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$39</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="11"/>
+                      <c:ptCount val="12"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1695,6 +1710,9 @@
                       </c:pt>
                       <c:pt idx="10">
                         <c:v>43660</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>43669</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3372,10 +3390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3876,6 +3894,23 @@
       </c>
       <c r="E38">
         <v>54.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>43669</v>
+      </c>
+      <c r="B39">
+        <v>17.8</v>
+      </c>
+      <c r="C39">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="D39">
+        <v>12.9</v>
+      </c>
+      <c r="E39">
+        <v>55.1</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$39</c:f>
+              <c:f>Sheet1!$A$28:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1121,16 +1121,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$39</c:f>
+              <c:f>Sheet1!$B$28:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1166,6 +1169,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1290,13 +1296,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$39</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1332,6 +1338,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>43669</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43698</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1463,10 +1472,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$39</c:f>
+              <c:f>Sheet1!$A$28:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1502,16 +1511,19 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>43669</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43698</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$39</c:f>
+              <c:f>Sheet1!$C$28:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1547,6 +1559,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>72.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>71.3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1671,13 +1686,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$39</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$40</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="12"/>
+                      <c:ptCount val="13"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1713,6 +1728,9 @@
                       </c:pt>
                       <c:pt idx="11">
                         <c:v>43669</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>43698</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3390,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3911,6 +3929,23 @@
       </c>
       <c r="E39">
         <v>55.1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B40">
+        <v>16.5</v>
+      </c>
+      <c r="C40">
+        <v>71.3</v>
+      </c>
+      <c r="D40">
+        <v>11.8</v>
+      </c>
+      <c r="E40">
+        <v>55.4</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$40</c:f>
+              <c:f>Sheet1!$A$28:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1124,16 +1124,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$40</c:f>
+              <c:f>Sheet1!$B$28:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1172,6 +1178,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1296,13 +1308,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$40</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$42</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1341,6 +1353,12 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>43698</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43725</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43748</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1472,10 +1490,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$40</c:f>
+              <c:f>Sheet1!$A$28:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1514,16 +1532,22 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43698</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43725</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$40</c:f>
+              <c:f>Sheet1!$C$28:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1562,6 +1586,12 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>71.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>70.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>71.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1686,13 +1716,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$40</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$42</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="13"/>
+                      <c:ptCount val="15"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1731,6 +1761,12 @@
                       </c:pt>
                       <c:pt idx="12">
                         <c:v>43698</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>43725</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>43748</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1829,6 +1865,7 @@
         <c:axId val="2006535104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3408,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3946,6 +3983,40 @@
       </c>
       <c r="E40">
         <v>55.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>43725</v>
+      </c>
+      <c r="B41">
+        <v>16.5</v>
+      </c>
+      <c r="C41">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="D41">
+        <v>11.6</v>
+      </c>
+      <c r="E41">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>43748</v>
+      </c>
+      <c r="B42">
+        <v>15.5</v>
+      </c>
+      <c r="C42">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="D42">
+        <v>11</v>
+      </c>
+      <c r="E42">
+        <v>55.9</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$42</c:f>
+              <c:f>Sheet1!$A$28:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1130,16 +1130,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$42</c:f>
+              <c:f>Sheet1!$B$28:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1184,6 +1187,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>15.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.100000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,13 +1314,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$42</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$43</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1359,6 +1365,9 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>43748</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43778</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1490,10 +1499,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$42</c:f>
+              <c:f>Sheet1!$A$28:$A$43</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1538,16 +1547,19 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>43748</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43778</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$42</c:f>
+              <c:f>Sheet1!$C$28:$C$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1592,6 +1604,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>71.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>69.099999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1716,13 +1731,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$42</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$43</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="15"/>
+                      <c:ptCount val="16"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1767,6 +1782,9 @@
                       </c:pt>
                       <c:pt idx="14">
                         <c:v>43748</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>43778</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3445,10 +3463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4017,6 +4035,23 @@
       </c>
       <c r="E42">
         <v>55.9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B43">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="C43">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D43">
+        <v>11.1</v>
+      </c>
+      <c r="E43">
+        <v>53.9</v>
       </c>
     </row>
   </sheetData>

--- a/weight.xlsx
+++ b/weight.xlsx
@@ -1082,10 +1082,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$43</c:f>
+              <c:f>Sheet1!$A$28:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1133,16 +1133,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$28:$B$43</c:f>
+              <c:f>Sheet1!$B$28:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>17.2</c:v>
                 </c:pt>
@@ -1190,6 +1193,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>16.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1314,13 +1320,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$43</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="16"/>
+                      <c:ptCount val="17"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1368,6 +1374,9 @@
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43793</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1499,10 +1508,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$28:$A$43</c:f>
+              <c:f>Sheet1!$A$28:$A$44</c:f>
               <c:numCache>
                 <c:formatCode>m"月"d"日"</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>43403</c:v>
                 </c:pt>
@@ -1550,16 +1559,19 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>43778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43793</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$28:$C$43</c:f>
+              <c:f>Sheet1!$C$28:$C$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>73.900000000000006</c:v>
                 </c:pt>
@@ -1607,6 +1619,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>69.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>68.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1731,13 +1746,13 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$A$28:$A$43</c15:sqref>
+                          <c15:sqref>Sheet1!$A$28:$A$44</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
                       <c:formatCode>m"月"d"日"</c:formatCode>
-                      <c:ptCount val="16"/>
+                      <c:ptCount val="17"/>
                       <c:pt idx="0">
                         <c:v>43403</c:v>
                       </c:pt>
@@ -1785,6 +1800,9 @@
                       </c:pt>
                       <c:pt idx="15">
                         <c:v>43778</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>43793</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -3463,10 +3481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+      <selection activeCell="N48" sqref="N48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4052,6 +4070,23 @@
       </c>
       <c r="E43">
         <v>53.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>43793</v>
+      </c>
+      <c r="B44">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>68.8</v>
+      </c>
+      <c r="D44">
+        <v>9.6</v>
+      </c>
+      <c r="E44">
+        <v>55.1</v>
       </c>
     </row>
   </sheetData>
